--- a/dist/checklists/core/xlsx/mixs/stx_fish_mixs_core.xlsx
+++ b/dist/checklists/core/xlsx/mixs/stx_fish_mixs_core.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="234">
   <si>
     <t>Study ID</t>
   </si>
@@ -110,6 +110,12 @@
     <t>Specific Host</t>
   </si>
   <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>Strain</t>
+  </si>
+  <si>
     <t>Microbial Start Taxon ID</t>
   </si>
   <si>
@@ -125,12 +131,21 @@
     <t>Environmental Medium</t>
   </si>
   <si>
+    <t>Accession Number</t>
+  </si>
+  <si>
     <t>Geographic Location Name</t>
   </si>
   <si>
     <t>Specific Host (optional)</t>
   </si>
   <si>
+    <t>Organism (optional)</t>
+  </si>
+  <si>
+    <t>Strain (optional)</t>
+  </si>
+  <si>
     <t>Microbial Start Taxon ID (optional)</t>
   </si>
   <si>
@@ -146,6 +161,9 @@
     <t>Environmental Medium (optional)</t>
   </si>
   <si>
+    <t>Accession Number (optional)</t>
+  </si>
+  <si>
     <t>Geographic Location Name (optional)</t>
   </si>
   <si>
@@ -186,6 +204,12 @@
   </si>
   <si>
     <t>e.g. Tissue culture</t>
+  </si>
+  <si>
+    <t>A unique alphanumeric reference or identifier assigned to the sample in the study related to NCBI Taxonomy.</t>
+  </si>
+  <si>
+    <t>e.g. accession123</t>
   </si>
   <si>
     <t>A list (concatenated and separated) of geographic names less specific than the information captured in the dwc:locality term.</t>
@@ -1182,408 +1206,383 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:F78"/>
+  <dimension ref="F5:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:6">
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
+    <row r="5" spans="6:6">
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6">
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6">
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6">
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6">
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="6:6">
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6">
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6">
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6">
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6">
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
-      <c r="D21" t="s">
+    <row r="13" spans="6:6">
+      <c r="F13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
-      <c r="D22" t="s">
+    <row r="14" spans="6:6">
+      <c r="F14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="4:4">
-      <c r="D23" t="s">
+    <row r="15" spans="6:6">
+      <c r="F15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
-      <c r="D24" t="s">
+    <row r="16" spans="6:6">
+      <c r="F16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
-      <c r="D25" t="s">
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
-      <c r="D26" t="s">
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
-      <c r="D27" t="s">
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="4:4">
-      <c r="D28" t="s">
+    <row r="20" spans="6:6">
+      <c r="F20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="4:4">
-      <c r="D29" t="s">
+    <row r="21" spans="6:6">
+      <c r="F21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
-      <c r="D30" t="s">
+    <row r="22" spans="6:6">
+      <c r="F22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
-      <c r="D31" t="s">
+    <row r="23" spans="6:6">
+      <c r="F23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
-      <c r="D32" t="s">
+    <row r="24" spans="6:6">
+      <c r="F24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
-      <c r="D33" t="s">
+    <row r="25" spans="6:6">
+      <c r="F25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
-      <c r="D34" t="s">
+    <row r="26" spans="6:6">
+      <c r="F26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
-      <c r="D35" t="s">
+    <row r="27" spans="6:6">
+      <c r="F27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
-      <c r="D36" t="s">
+    <row r="28" spans="6:6">
+      <c r="F28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
-      <c r="D37" t="s">
+    <row r="29" spans="6:6">
+      <c r="F29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
-      <c r="D38" t="s">
+    <row r="30" spans="6:6">
+      <c r="F30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
-      <c r="D39" t="s">
+    <row r="31" spans="6:6">
+      <c r="F31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
-      <c r="D40" t="s">
+    <row r="32" spans="6:6">
+      <c r="F32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
-      <c r="D41" t="s">
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
-      <c r="D42" t="s">
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="4:4">
-      <c r="D43" t="s">
+    <row r="35" spans="6:6">
+      <c r="F35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="4:4">
-      <c r="D44" t="s">
+    <row r="36" spans="6:6">
+      <c r="F36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
-      <c r="D45" t="s">
+    <row r="37" spans="6:6">
+      <c r="F37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="4:4">
-      <c r="D46" t="s">
+    <row r="38" spans="6:6">
+      <c r="F38" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="4:4">
-      <c r="D47" t="s">
+    <row r="39" spans="6:6">
+      <c r="F39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="4:4">
-      <c r="D48" t="s">
+    <row r="40" spans="6:6">
+      <c r="F40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
-      <c r="D49" t="s">
+    <row r="41" spans="6:6">
+      <c r="F41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="4:4">
-      <c r="D50" t="s">
+    <row r="42" spans="6:6">
+      <c r="F42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
-      <c r="D51" t="s">
+    <row r="43" spans="6:6">
+      <c r="F43" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
-      <c r="D52" t="s">
+    <row r="44" spans="6:6">
+      <c r="F44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
-      <c r="D53" t="s">
+    <row r="45" spans="6:6">
+      <c r="F45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
-      <c r="D54" t="s">
+    <row r="46" spans="6:6">
+      <c r="F46" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="4:4">
-      <c r="D55" t="s">
+    <row r="47" spans="6:6">
+      <c r="F47" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="4:4">
-      <c r="D56" t="s">
+    <row r="48" spans="6:6">
+      <c r="F48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
-      <c r="D57" t="s">
+    <row r="49" spans="6:6">
+      <c r="F49" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="4:4">
-      <c r="D58" t="s">
+    <row r="50" spans="6:6">
+      <c r="F50" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="4:4">
-      <c r="D59" t="s">
+    <row r="51" spans="6:6">
+      <c r="F51" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="4:4">
-      <c r="D60" t="s">
+    <row r="52" spans="6:6">
+      <c r="F52" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="4:4">
-      <c r="D61" t="s">
+    <row r="53" spans="6:6">
+      <c r="F53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="4:4">
-      <c r="D62" t="s">
+    <row r="54" spans="6:6">
+      <c r="F54" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="4:4">
-      <c r="D63" t="s">
+    <row r="55" spans="6:6">
+      <c r="F55" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="4:4">
-      <c r="D64" t="s">
+    <row r="56" spans="6:6">
+      <c r="F56" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="4:4">
-      <c r="D65" t="s">
+    <row r="57" spans="6:6">
+      <c r="F57" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="4:4">
-      <c r="D66" t="s">
+    <row r="58" spans="6:6">
+      <c r="F58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="4:4">
-      <c r="D67" t="s">
+    <row r="59" spans="6:6">
+      <c r="F59" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="4:4">
-      <c r="D68" t="s">
+    <row r="60" spans="6:6">
+      <c r="F60" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="4:4">
-      <c r="D69" t="s">
+    <row r="61" spans="6:6">
+      <c r="F61" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="4:4">
-      <c r="D70" t="s">
+    <row r="62" spans="6:6">
+      <c r="F62" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="4:4">
-      <c r="D71" t="s">
+    <row r="63" spans="6:6">
+      <c r="F63" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="4:4">
-      <c r="D72" t="s">
+    <row r="64" spans="6:6">
+      <c r="F64" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="4:4">
-      <c r="D73" t="s">
+    <row r="65" spans="6:6">
+      <c r="F65" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="4:4">
-      <c r="D74" t="s">
+    <row r="66" spans="6:6">
+      <c r="F66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="4:4">
-      <c r="D75" t="s">
+    <row r="67" spans="6:6">
+      <c r="F67" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="4:4">
-      <c r="D76" t="s">
+    <row r="68" spans="6:6">
+      <c r="F68" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="4:4">
-      <c r="D77" t="s">
+    <row r="69" spans="6:6">
+      <c r="F69" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="4:4">
-      <c r="D78" t="s">
+    <row r="70" spans="6:6">
+      <c r="F70" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1593,100 +1592,128 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="100" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="100" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="111" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1697,18 +1724,21 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A4:K4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:H4">
+  <conditionalFormatting sqref="A1:K4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="11">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
@@ -1716,22 +1746,31 @@
       <formula1>AND(LEN(B5)&gt;0, CODE(LEFT(B5,1))&gt;=65, CODE(LEFT(B5,1))&lt;=90, SUM(--ISNUMBER(FIND(MID(B5, ROW(INDIRECT("1:"&amp;LEN(B5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(C5, ROW(INDIRECT("1:"&amp;LEN(C5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
-      <formula1>HiddenDropdowns!$D$5:$D$78</formula1>
+      <formula1>AND(LEN(C5)&gt;0, CODE(LEFT(C5,1))&gt;=65, CODE(LEFT(C5,1))&lt;=90, SUM(--ISNUMBER(FIND(MID(C5, ROW(INDIRECT("1:"&amp;LEN(C5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(D5, ROW(INDIRECT("1:"&amp;LEN(D5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(E5, ROW(INDIRECT("1:"&amp;LEN(E5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(F5, ROW(INDIRECT("1:"&amp;LEN(F5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
+      <formula1>HiddenDropdowns!$F$5:$F$78</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(G5, ROW(INDIRECT("1:"&amp;LEN(G5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(H5, ROW(INDIRECT("1:"&amp;LEN(H5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(I5, ROW(INDIRECT("1:"&amp;LEN(I5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(J5, ROW(INDIRECT("1:"&amp;LEN(J5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(K5, ROW(INDIRECT("1:"&amp;LEN(K5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1775,233 +1814,233 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="T3" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2130,35 +2169,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/dist/checklists/core/xlsx/mixs/stx_fish_mixs_core.xlsx
+++ b/dist/checklists/core/xlsx/mixs/stx_fish_mixs_core.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="235">
   <si>
     <t>Study ID</t>
   </si>
@@ -134,7 +134,7 @@
     <t>Accession Number</t>
   </si>
   <si>
-    <t>Geographic Location Name</t>
+    <t>Geographic Location (Country and/or Sea, Region)</t>
   </si>
   <si>
     <t>Specific Host (optional)</t>
@@ -164,7 +164,7 @@
     <t>Accession Number (optional)</t>
   </si>
   <si>
-    <t>Geographic Location Name (optional)</t>
+    <t>Geographic Location (Country and/or Sea, Region) (optional)</t>
   </si>
   <si>
     <t>A unique alphanumeric reference or identifier for the study.</t>
@@ -173,12 +173,15 @@
     <t>e.g. study123</t>
   </si>
   <si>
+    <t>Report the host's taxonomic name and/or NCBI taxonomy ID</t>
+  </si>
+  <si>
+    <t>e.g. Arenicola marina</t>
+  </si>
+  <si>
     <t>The full scientific name of the species studied.</t>
   </si>
   <si>
-    <t>e.g. Arenicola marina</t>
-  </si>
-  <si>
     <t>An identifier of the strain of the organism, if applicable.</t>
   </si>
   <si>
@@ -212,10 +215,10 @@
     <t>e.g. accession123</t>
   </si>
   <si>
-    <t>A list (concatenated and separated) of geographic names less specific than the information captured in the dwc:locality term.</t>
-  </si>
-  <si>
-    <t>e.g. South America | Argentina | Patagonia</t>
+    <t>The geographical origin of the sample as defined by the country or sea name followed by specific region name. Country or sea names should be chosen from the INSDC country list (http://insdc.org/country.html), or the GAZ ontology (http://purl.bioontology.org/ontology/GAZ)</t>
+  </si>
+  <si>
+    <t>e.g. USA: Maryland, Bethesda</t>
   </si>
   <si>
     <t>Abdomen</t>
@@ -1217,372 +1220,372 @@
   <sheetData>
     <row r="5" spans="6:6">
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="6:6">
       <c r="F6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="6:6">
       <c r="F7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="6:6">
       <c r="F8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="6:6">
       <c r="F12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="6:6">
       <c r="F13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="6:6">
       <c r="F14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="6:6">
       <c r="F15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="6:6">
       <c r="F16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="6:6">
       <c r="F23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="6:6">
       <c r="F27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="6:6">
       <c r="F36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1599,13 +1602,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="50.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="100" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="111" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="244" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1651,31 +1655,31 @@
         <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1689,28 +1693,28 @@
         <v>52</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1738,7 +1742,7 @@
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="11">
+  <dataValidations count="10">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
@@ -1768,9 +1772,6 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(J5, ROW(INDIRECT("1:"&amp;LEN(J5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(K5, ROW(INDIRECT("1:"&amp;LEN(K5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1814,233 +1815,233 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2169,35 +2170,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:3">
